--- a/项目/FarmStory/需求/FarmStory服务端需求分析及开发排期.xlsx
+++ b/项目/FarmStory/需求/FarmStory服务端需求分析及开发排期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13125" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="190">
   <si>
     <t>模块</t>
   </si>
@@ -257,6 +257,10 @@
   <si>
     <t>采集物品
 物品需记录剩余采集次数</t>
+  </si>
+  <si>
+    <t>点击特惠球
+购买特惠物品</t>
   </si>
   <si>
     <t>放下采集物品</t>
@@ -970,9 +974,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1011,23 +1015,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,60 +1030,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,16 +1066,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,9 +1099,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1148,7 +1114,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1161,19 +1127,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1207,7 +1205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1229,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,37 +1343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,43 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,73 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,18 +1402,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1436,6 +1423,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1451,25 +1453,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1493,8 +1491,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,155 +1501,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1661,13 +1659,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1676,16 +1674,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,22 +1713,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1751,10 +1746,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1769,7 +1764,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1793,7 +1788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1811,16 +1806,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1835,7 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
@@ -1844,7 +1839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1859,16 +1854,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2191,21 +2186,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="61.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="73.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="7" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="7" customWidth="1"/>
     <col min="8" max="8" width="40.125" style="7" customWidth="1"/>
@@ -2216,1716 +2211,1728 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="85.5" spans="1:20">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" ht="85.5" spans="1:20">
-      <c r="A3" s="18"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" ht="71.25" spans="1:20">
-      <c r="A4" s="18"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" ht="85.5" spans="1:20">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" ht="85.5" spans="1:20">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
     </row>
     <row r="7" ht="57" spans="1:20">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" ht="28.5" spans="1:20">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" ht="28.5" spans="1:20">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" ht="85.5" spans="1:20">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:20">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" ht="42.75" spans="1:10">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="13">
+      <c r="E12" s="16"/>
+      <c r="F12" s="12">
         <v>5</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="62"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" ht="71.25" spans="1:10">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
       <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="58" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="57" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" ht="57" spans="1:10">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>2</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="58"/>
+      <c r="F14" s="12"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" ht="71.25" spans="1:10">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="58"/>
+      <c r="F15" s="12"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" s="8" customFormat="1" spans="1:14">
-      <c r="A16" s="33"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="33"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" s="9" customFormat="1" ht="71.25" spans="1:10">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>1</v>
       </c>
       <c r="F17" s="7">
         <v>16.5</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="I17" s="48" t="s">
+      <c r="G17" s="38"/>
+      <c r="I17" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="62" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" ht="111" customHeight="1" spans="1:10">
-      <c r="A18" s="35"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="58" t="s">
+      <c r="G18" s="38"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" ht="50.1" customHeight="1" spans="1:10">
-      <c r="A19" s="35"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="30">
+      <c r="D19" s="40"/>
+      <c r="E19" s="29">
         <v>2</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="58"/>
+      <c r="G19" s="38"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" ht="50.1" customHeight="1" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21">
+      <c r="D20" s="40"/>
+      <c r="E20" s="29"/>
+      <c r="G20" s="38"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" ht="50.1" customHeight="1" spans="1:10">
+      <c r="A21" s="34"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20">
         <v>1.5</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" ht="50.1" customHeight="1" spans="1:10">
-      <c r="A21" s="35"/>
-      <c r="B21" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="G21" s="38"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" ht="50.1" customHeight="1" spans="1:10">
+      <c r="A22" s="34"/>
+      <c r="B22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21">
+      <c r="C22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" ht="71.25" spans="1:20">
-      <c r="A22" s="35"/>
-      <c r="C22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="41" t="s">
+      <c r="G22" s="38"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" ht="71.25" spans="1:20">
+      <c r="A23" s="34"/>
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="30">
+      <c r="D23" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="29">
         <v>2</v>
       </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" ht="26.1" customHeight="1" spans="1:20">
-      <c r="A23" s="35"/>
-      <c r="B23" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="42" t="s">
+      <c r="G23" s="38"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" ht="26.1" customHeight="1" spans="1:20">
+      <c r="A24" s="34"/>
+      <c r="B24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="C24" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="17">
+      <c r="D24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" ht="48" customHeight="1" spans="1:10">
-      <c r="A24" s="35"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="17"/>
-      <c r="G24" s="39"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="35"/>
-      <c r="B25" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="G24" s="38"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" ht="48" customHeight="1" spans="1:10">
+      <c r="A25" s="34"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="34"/>
+      <c r="B26" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="C26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="45">
+      <c r="D26" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="44">
         <v>4</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="35"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="16" t="s">
+      <c r="G26" s="38"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="34"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="45"/>
-      <c r="G26" s="39"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" ht="57" spans="1:10">
-      <c r="A27" s="35"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="45"/>
-      <c r="G27" s="39"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" ht="42.75" spans="1:10">
-      <c r="A28" s="35"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="44"/>
+      <c r="G27" s="38"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" ht="57" spans="1:10">
+      <c r="A28" s="34"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="45"/>
-      <c r="G28" s="39"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="58"/>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:20">
-      <c r="A29" s="33"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="34"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-    </row>
-    <row r="30" ht="57" spans="1:10">
-      <c r="A30" s="18" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="44"/>
+      <c r="G28" s="38"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" ht="42.75" spans="1:10">
+      <c r="A29" s="34"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="44"/>
+      <c r="G29" s="38"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:20">
+      <c r="A30" s="32"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="33"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+    </row>
+    <row r="31" ht="57" spans="1:10">
+      <c r="A31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="B31" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="C31" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="17">
+      <c r="D31" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>8</v>
       </c>
-      <c r="I30" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="58" t="s">
+      <c r="I31" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" ht="42.75" spans="1:10">
-      <c r="A31" s="18"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="16" t="s">
+    <row r="32" ht="42.75" spans="1:10">
+      <c r="A32" s="17"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="I32" s="47"/>
+      <c r="J32" s="57"/>
+    </row>
+    <row r="33" ht="28.5" spans="1:10">
+      <c r="A33" s="17"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2</v>
+      </c>
+      <c r="I33" s="47"/>
+      <c r="J33" s="57"/>
+    </row>
+    <row r="34" ht="71.25" spans="1:20">
+      <c r="A34" s="17"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="20">
+        <v>2</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+    </row>
+    <row r="35" ht="85.5" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="57"/>
+    </row>
+    <row r="36" ht="28.5" spans="1:20">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="29">
+        <v>2</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:20">
+      <c r="A37" s="32"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="33"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+    </row>
+    <row r="38" ht="28.5" spans="1:10">
+      <c r="A38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:20">
+      <c r="A39" s="32"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="33"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+    </row>
+    <row r="40" ht="28.5" spans="1:10">
+      <c r="A40" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>10</v>
+      </c>
+      <c r="I40" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="J40" s="57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" ht="142.5" spans="1:10">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="29">
+        <v>8</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="46"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="57"/>
+    </row>
+    <row r="42" ht="42.75" spans="1:10">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="16">
         <v>1</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="58"/>
-    </row>
-    <row r="32" ht="28.5" spans="1:10">
-      <c r="A32" s="18"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="F42" s="12"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="57"/>
+    </row>
+    <row r="43" s="8" customFormat="1" spans="1:20">
+      <c r="A43" s="32"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="33"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+    </row>
+    <row r="44" ht="57" spans="1:10">
+      <c r="A44" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="16">
         <v>2</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="58"/>
-    </row>
-    <row r="33" ht="71.25" spans="1:20">
-      <c r="A33" s="18"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="21">
+      <c r="F44" s="6">
+        <v>4</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" ht="28.5" spans="1:10">
+      <c r="A45" s="47"/>
+      <c r="B45" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="57"/>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="57" spans="1:10">
+      <c r="A46" s="47"/>
+      <c r="B46" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="37">
         <v>2</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-    </row>
-    <row r="34" ht="85.5" spans="1:10">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="58"/>
-    </row>
-    <row r="35" ht="28.5" spans="1:20">
-      <c r="A35" s="18"/>
-      <c r="B35" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="30">
+      <c r="F46" s="6"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="57"/>
+    </row>
+    <row r="47" s="9" customFormat="1" spans="1:10">
+      <c r="A47" s="47"/>
+      <c r="B47" s="49"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="6"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="57"/>
+    </row>
+    <row r="48" s="9" customFormat="1" spans="1:10">
+      <c r="A48" s="47"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="6"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="57"/>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:10">
+      <c r="A49" s="32"/>
+      <c r="B49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="J49" s="63"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="12">
         <v>2</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36" s="8" customFormat="1" spans="1:20">
-      <c r="A36" s="33"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-    </row>
-    <row r="37" ht="28.5" spans="1:10">
-      <c r="A37" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="F50" s="12">
+        <v>2</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="17"/>
+      <c r="B51" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="2"/>
+      <c r="F51" s="12"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="57"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="17"/>
+      <c r="B52" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="2"/>
+      <c r="F52" s="12"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="57"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="17"/>
+      <c r="B53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="2"/>
+      <c r="F53" s="12"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="57"/>
+    </row>
+    <row r="54" s="8" customFormat="1" spans="1:10">
+      <c r="A54" s="55"/>
+      <c r="B54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="J54" s="63"/>
+    </row>
+    <row r="55" s="9" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A55" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="37">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" s="9" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A56" s="47"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="62"/>
+    </row>
+    <row r="57" s="9" customFormat="1" spans="1:10">
+      <c r="A57" s="47"/>
+      <c r="B57" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="62"/>
+    </row>
+    <row r="58" s="8" customFormat="1" spans="1:10">
+      <c r="A58" s="55"/>
+      <c r="B58" s="52"/>
+      <c r="E58" s="53"/>
+      <c r="J58" s="63"/>
+    </row>
+    <row r="59" s="9" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A59" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="37">
         <v>1</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F59" s="37">
         <v>1</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I59" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" s="9" customFormat="1" spans="1:10">
+      <c r="A60" s="47"/>
+      <c r="B60" s="49"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="62"/>
+    </row>
+    <row r="61" s="9" customFormat="1" spans="1:10">
+      <c r="A61" s="47"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="62"/>
+    </row>
+    <row r="62" s="8" customFormat="1" spans="1:10">
+      <c r="A62" s="55"/>
+      <c r="B62" s="52"/>
+      <c r="E62" s="53"/>
+      <c r="J62" s="63"/>
+    </row>
+    <row r="63" s="9" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A63" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="37">
+        <v>2</v>
+      </c>
+      <c r="F63" s="9">
+        <v>2</v>
+      </c>
+      <c r="I63" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" s="9" customFormat="1" spans="1:10">
+      <c r="A64" s="47"/>
+      <c r="B64" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="62"/>
+    </row>
+    <row r="65" s="9" customFormat="1" spans="1:10">
+      <c r="A65" s="47"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="62"/>
+    </row>
+    <row r="66" s="8" customFormat="1" spans="1:10">
+      <c r="A66" s="55"/>
+      <c r="B66" s="52"/>
+      <c r="E66" s="53"/>
+      <c r="J66" s="63"/>
+    </row>
+    <row r="67" s="9" customFormat="1" spans="1:10">
+      <c r="A67" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="37">
+        <v>3</v>
+      </c>
+      <c r="F67" s="9">
+        <v>6</v>
+      </c>
+      <c r="I67" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="58" t="s">
+      <c r="J67" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" s="9" customFormat="1" spans="1:10">
+      <c r="A68" s="47"/>
+      <c r="B68" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="37">
+        <v>2</v>
+      </c>
+      <c r="I68" s="47"/>
+      <c r="J68" s="62"/>
+    </row>
+    <row r="69" s="9" customFormat="1" spans="1:10">
+      <c r="A69" s="47"/>
+      <c r="B69" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="37">
+        <v>1</v>
+      </c>
+      <c r="I69" s="47"/>
+      <c r="J69" s="62"/>
+    </row>
+    <row r="70" s="8" customFormat="1" spans="1:10">
+      <c r="A70" s="55"/>
+      <c r="B70" s="52"/>
+      <c r="E70" s="53"/>
+      <c r="J70" s="63"/>
+    </row>
+    <row r="71" s="9" customFormat="1" spans="1:10">
+      <c r="A71" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I71" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J71" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" s="9" customFormat="1" spans="1:10">
+      <c r="A72" s="64"/>
+      <c r="B72" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="47"/>
+      <c r="J72" s="62"/>
+    </row>
+    <row r="73" s="9" customFormat="1" spans="1:10">
+      <c r="A73" s="64"/>
+      <c r="B73" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="47"/>
+      <c r="J73" s="62"/>
+    </row>
+    <row r="74" s="8" customFormat="1" spans="1:10">
+      <c r="A74" s="55"/>
+      <c r="B74" s="52"/>
+      <c r="E74" s="53"/>
+      <c r="J74" s="63"/>
+    </row>
+    <row r="75" s="9" customFormat="1" ht="30.75" customHeight="1" spans="1:10">
+      <c r="A75" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="37">
+        <v>2</v>
+      </c>
+      <c r="F75" s="9">
+        <v>3</v>
+      </c>
+      <c r="I75" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" s="9" customFormat="1" ht="56.25" customHeight="1" spans="1:10">
+      <c r="A76" s="47"/>
+      <c r="B76" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="37">
+        <v>1</v>
+      </c>
+      <c r="I76" s="47"/>
+      <c r="J76" s="62"/>
+    </row>
+    <row r="77" s="8" customFormat="1" spans="1:10">
+      <c r="A77" s="55"/>
+      <c r="B77" s="52"/>
+      <c r="E77" s="53"/>
+      <c r="J77" s="63"/>
+    </row>
+    <row r="78" s="9" customFormat="1" ht="57" spans="1:10">
+      <c r="A78" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="37"/>
+      <c r="F78" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I78" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J78" s="62" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:20">
-      <c r="A38" s="33"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-    </row>
-    <row r="39" ht="28.5" spans="1:10">
-      <c r="A39" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="17">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13">
-        <v>10</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" ht="142.5" spans="1:10">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29" t="s">
+    <row r="79" s="8" customFormat="1" spans="1:10">
+      <c r="A79" s="55"/>
+      <c r="B79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="J79" s="63"/>
+    </row>
+    <row r="80" s="9" customFormat="1" spans="1:10">
+      <c r="A80" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" s="37"/>
+      <c r="F80" s="9">
+        <v>4</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" s="62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" s="9" customFormat="1" spans="1:10">
+      <c r="A81" s="47"/>
+      <c r="B81" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="37"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="62"/>
+    </row>
+    <row r="82" s="9" customFormat="1" spans="1:10">
+      <c r="A82" s="47"/>
+      <c r="B82" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="37"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="62"/>
+    </row>
+    <row r="83" s="9" customFormat="1" spans="1:10">
+      <c r="A83" s="47"/>
+      <c r="B83" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="37"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="62"/>
+    </row>
+    <row r="84" s="8" customFormat="1" spans="1:10">
+      <c r="A84" s="55"/>
+      <c r="B84" s="52"/>
+      <c r="E84" s="53"/>
+      <c r="J84" s="63"/>
+    </row>
+    <row r="85" s="9" customFormat="1" spans="1:10">
+      <c r="A85" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="37"/>
+      <c r="F85" s="9">
+        <v>3</v>
+      </c>
+      <c r="I85" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J85" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="30">
-        <v>8</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="58"/>
-    </row>
-    <row r="41" ht="42.75" spans="1:10">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="17">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="58"/>
-    </row>
-    <row r="42" s="8" customFormat="1" spans="1:20">
-      <c r="A42" s="33"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-    </row>
-    <row r="43" ht="57" spans="1:10">
-      <c r="A43" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="17">
+    </row>
+    <row r="86" s="9" customFormat="1" spans="1:10">
+      <c r="A86" s="47"/>
+      <c r="B86" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" s="37"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="62"/>
+    </row>
+    <row r="87" s="9" customFormat="1" spans="1:10">
+      <c r="A87" s="47"/>
+      <c r="B87" s="49"/>
+      <c r="E87" s="37"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="62"/>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:10">
+      <c r="A88" s="55"/>
+      <c r="B88" s="52"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="8"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="63"/>
+    </row>
+    <row r="89" customFormat="1" spans="1:10">
+      <c r="A89" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="7"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="57"/>
+    </row>
+    <row r="90" s="8" customFormat="1" spans="1:10">
+      <c r="A90" s="55"/>
+      <c r="B90" s="52"/>
+      <c r="E90" s="53"/>
+      <c r="J90" s="63"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="7">
+        <v>7</v>
+      </c>
+      <c r="I91" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="61"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="12">
         <v>2</v>
       </c>
-      <c r="F43" s="6">
-        <v>4</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:10">
-      <c r="A44" s="48"/>
-      <c r="B44" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="57" spans="1:10">
-      <c r="A45" s="48"/>
-      <c r="B45" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="38">
+      <c r="I92" s="47"/>
+      <c r="J92" s="61"/>
+    </row>
+    <row r="93" s="8" customFormat="1" spans="1:10">
+      <c r="A93" s="55"/>
+      <c r="B93" s="52"/>
+      <c r="E93" s="53"/>
+      <c r="J93" s="63"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" s="12">
         <v>2</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" s="9" customFormat="1" spans="1:10">
-      <c r="A46" s="48"/>
-      <c r="B46" s="50"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="6"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" s="9" customFormat="1" spans="1:10">
-      <c r="A47" s="48"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="6"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="58"/>
-    </row>
-    <row r="48" s="8" customFormat="1" spans="1:10">
-      <c r="A48" s="33"/>
-      <c r="B48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="J48" s="64"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="13">
-        <v>2</v>
-      </c>
-      <c r="F49" s="13">
-        <v>2</v>
-      </c>
-      <c r="I49" s="48" t="s">
+      <c r="F94" s="7">
+        <v>6</v>
+      </c>
+      <c r="I94" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J49" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="2"/>
-      <c r="F50" s="13"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="58"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="2"/>
-      <c r="F51" s="13"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="58"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="2"/>
-      <c r="F52" s="13"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="58"/>
-    </row>
-    <row r="53" s="8" customFormat="1" spans="1:10">
-      <c r="A53" s="56"/>
-      <c r="B53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="J53" s="64"/>
-    </row>
-    <row r="54" s="9" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A54" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="38">
-        <v>2</v>
-      </c>
-      <c r="F54" s="9">
-        <v>2</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" s="9" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A55" s="48"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="63"/>
-    </row>
-    <row r="56" s="9" customFormat="1" spans="1:10">
-      <c r="A56" s="48"/>
-      <c r="B56" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="63"/>
-    </row>
-    <row r="57" s="8" customFormat="1" spans="1:10">
-      <c r="A57" s="56"/>
-      <c r="B57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="J57" s="64"/>
-    </row>
-    <row r="58" s="9" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A58" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="38">
-        <v>1</v>
-      </c>
-      <c r="F58" s="38">
-        <v>1</v>
-      </c>
-      <c r="I58" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" s="9" customFormat="1" spans="1:10">
-      <c r="A59" s="48"/>
-      <c r="B59" s="50"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="63"/>
-    </row>
-    <row r="60" s="9" customFormat="1" spans="1:10">
-      <c r="A60" s="48"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="63"/>
-    </row>
-    <row r="61" s="8" customFormat="1" spans="1:10">
-      <c r="A61" s="56"/>
-      <c r="B61" s="53"/>
-      <c r="E61" s="54"/>
-      <c r="J61" s="64"/>
-    </row>
-    <row r="62" s="9" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A62" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="38">
-        <v>2</v>
-      </c>
-      <c r="F62" s="9">
-        <v>2</v>
-      </c>
-      <c r="I62" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" s="9" customFormat="1" spans="1:10">
-      <c r="A63" s="48"/>
-      <c r="B63" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="38"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="63"/>
-    </row>
-    <row r="64" s="9" customFormat="1" spans="1:10">
-      <c r="A64" s="48"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="38"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="63"/>
-    </row>
-    <row r="65" s="8" customFormat="1" spans="1:10">
-      <c r="A65" s="56"/>
-      <c r="B65" s="53"/>
-      <c r="E65" s="54"/>
-      <c r="J65" s="64"/>
-    </row>
-    <row r="66" s="9" customFormat="1" spans="1:10">
-      <c r="A66" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="38">
-        <v>3</v>
-      </c>
-      <c r="F66" s="9">
-        <v>6</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" s="9" customFormat="1" spans="1:10">
-      <c r="A67" s="48"/>
-      <c r="B67" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="38">
-        <v>2</v>
-      </c>
-      <c r="I67" s="48"/>
-      <c r="J67" s="63"/>
-    </row>
-    <row r="68" s="9" customFormat="1" spans="1:10">
-      <c r="A68" s="48"/>
-      <c r="B68" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" s="38">
-        <v>1</v>
-      </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="63"/>
-    </row>
-    <row r="69" s="8" customFormat="1" spans="1:10">
-      <c r="A69" s="56"/>
-      <c r="B69" s="53"/>
-      <c r="E69" s="54"/>
-      <c r="J69" s="64"/>
-    </row>
-    <row r="70" s="9" customFormat="1" spans="1:10">
-      <c r="A70" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="F70" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="I70" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J70" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" s="9" customFormat="1" spans="1:10">
-      <c r="A71" s="65"/>
-      <c r="B71" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="48"/>
-      <c r="J71" s="63"/>
-    </row>
-    <row r="72" s="9" customFormat="1" spans="1:10">
-      <c r="A72" s="65"/>
-      <c r="B72" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="E72" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="48"/>
-      <c r="J72" s="63"/>
-    </row>
-    <row r="73" s="8" customFormat="1" spans="1:10">
-      <c r="A73" s="56"/>
-      <c r="B73" s="53"/>
-      <c r="E73" s="54"/>
-      <c r="J73" s="64"/>
-    </row>
-    <row r="74" s="9" customFormat="1" ht="30.75" customHeight="1" spans="1:10">
-      <c r="A74" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="38">
-        <v>2</v>
-      </c>
-      <c r="F74" s="9">
-        <v>3</v>
-      </c>
-      <c r="I74" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J74" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" s="9" customFormat="1" ht="56.25" customHeight="1" spans="1:10">
-      <c r="A75" s="48"/>
-      <c r="B75" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="38">
-        <v>1</v>
-      </c>
-      <c r="I75" s="48"/>
-      <c r="J75" s="63"/>
-    </row>
-    <row r="76" s="8" customFormat="1" spans="1:10">
-      <c r="A76" s="56"/>
-      <c r="B76" s="53"/>
-      <c r="E76" s="54"/>
-      <c r="J76" s="64"/>
-    </row>
-    <row r="77" s="9" customFormat="1" ht="57" spans="1:10">
-      <c r="A77" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="38"/>
-      <c r="F77" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J77" s="63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" s="8" customFormat="1" spans="1:10">
-      <c r="A78" s="56"/>
-      <c r="B78" s="53"/>
-      <c r="E78" s="54"/>
-      <c r="J78" s="64"/>
-    </row>
-    <row r="79" s="9" customFormat="1" spans="1:10">
-      <c r="A79" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D79" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="9">
-        <v>4</v>
-      </c>
-      <c r="I79" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J79" s="63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" s="9" customFormat="1" spans="1:10">
-      <c r="A80" s="48"/>
-      <c r="B80" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="38"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="63"/>
-    </row>
-    <row r="81" s="9" customFormat="1" spans="1:10">
-      <c r="A81" s="48"/>
-      <c r="B81" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" s="38"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="63"/>
-    </row>
-    <row r="82" s="9" customFormat="1" spans="1:10">
-      <c r="A82" s="48"/>
-      <c r="B82" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="63"/>
-    </row>
-    <row r="83" s="8" customFormat="1" spans="1:10">
-      <c r="A83" s="56"/>
-      <c r="B83" s="53"/>
-      <c r="E83" s="54"/>
-      <c r="J83" s="64"/>
-    </row>
-    <row r="84" s="9" customFormat="1" spans="1:10">
-      <c r="A84" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="9">
-        <v>3</v>
-      </c>
-      <c r="I84" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J84" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" s="9" customFormat="1" spans="1:10">
-      <c r="A85" s="48"/>
-      <c r="B85" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="38"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="63"/>
-    </row>
-    <row r="86" s="9" customFormat="1" spans="1:10">
-      <c r="A86" s="48"/>
-      <c r="B86" s="50"/>
-      <c r="E86" s="38"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="63"/>
-    </row>
-    <row r="87" s="10" customFormat="1" spans="1:10">
-      <c r="A87" s="56"/>
-      <c r="B87" s="53"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="8"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="64"/>
-    </row>
-    <row r="88" customFormat="1" spans="1:10">
-      <c r="A88" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="7"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="58"/>
-    </row>
-    <row r="89" s="8" customFormat="1" spans="1:10">
-      <c r="A89" s="56"/>
-      <c r="B89" s="53"/>
-      <c r="E89" s="54"/>
-      <c r="J89" s="64"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F90" s="7">
-        <v>7</v>
-      </c>
-      <c r="I90" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J90" s="62"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E91" s="13">
-        <v>2</v>
-      </c>
-      <c r="I91" s="48"/>
-      <c r="J91" s="62"/>
-    </row>
-    <row r="92" s="8" customFormat="1" spans="1:10">
-      <c r="A92" s="56"/>
-      <c r="B92" s="53"/>
-      <c r="E92" s="54"/>
-      <c r="J92" s="64"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E93" s="13">
-        <v>2</v>
-      </c>
-      <c r="F93" s="7">
-        <v>6</v>
-      </c>
-      <c r="I93" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="J93" s="58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10">
-      <c r="C94" s="7" t="s">
+      <c r="J94" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="I94" s="48"/>
-      <c r="J94" s="58"/>
     </row>
     <row r="95" spans="3:10">
       <c r="C95" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I95" s="48"/>
-      <c r="J95" s="58"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="12" t="s">
+      <c r="I95" s="47"/>
+      <c r="J95" s="57"/>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="C96" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E96" s="13">
+      <c r="I96" s="47"/>
+      <c r="J96" s="57"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="12">
         <v>1</v>
       </c>
-      <c r="I96" s="48"/>
-      <c r="J96" s="58"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E97" s="13">
+      <c r="I97" s="47"/>
+      <c r="J97" s="57"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="12">
         <v>3</v>
       </c>
-      <c r="I97" s="48"/>
-      <c r="J97" s="58"/>
-    </row>
-    <row r="98" s="8" customFormat="1" spans="1:10">
-      <c r="A98" s="56"/>
-      <c r="B98" s="53"/>
-      <c r="E98" s="54"/>
-      <c r="J98" s="64"/>
-    </row>
-    <row r="99" ht="85.5" spans="1:10">
-      <c r="A99" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="68" t="s">
+      <c r="I98" s="47"/>
+      <c r="J98" s="57"/>
+    </row>
+    <row r="99" s="8" customFormat="1" spans="1:10">
+      <c r="A99" s="55"/>
+      <c r="B99" s="52"/>
+      <c r="E99" s="53"/>
+      <c r="J99" s="63"/>
+    </row>
+    <row r="100" ht="85.5" spans="1:10">
+      <c r="A100" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="13">
+      <c r="B100" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="12">
         <v>1</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F100" s="7">
         <v>1</v>
       </c>
-      <c r="I99" s="48" t="s">
+      <c r="I100" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="J99" s="62"/>
-    </row>
-    <row r="100" s="8" customFormat="1" spans="1:10">
-      <c r="A100" s="56"/>
-      <c r="B100" s="53"/>
-      <c r="E100" s="54"/>
-      <c r="J100" s="64"/>
-    </row>
-    <row r="101" ht="28.5" spans="1:10">
-      <c r="A101" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="J100" s="61"/>
+    </row>
+    <row r="101" s="8" customFormat="1" spans="1:10">
+      <c r="A101" s="55"/>
+      <c r="B101" s="52"/>
+      <c r="E101" s="53"/>
+      <c r="J101" s="63"/>
+    </row>
+    <row r="102" ht="28.5" spans="1:10">
+      <c r="A102" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F101" s="7">
+      <c r="D102" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="7">
         <v>8</v>
       </c>
-      <c r="J101" s="62"/>
-    </row>
-    <row r="102" s="11" customFormat="1" spans="1:10">
-      <c r="A102" s="69"/>
-      <c r="B102" s="70"/>
-      <c r="E102" s="71"/>
-      <c r="J102" s="72"/>
-    </row>
-    <row r="103" s="11" customFormat="1" spans="1:10">
-      <c r="A103" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B103" s="70"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="11">
-        <f>SUM(F12:F102)</f>
+      <c r="J102" s="61"/>
+    </row>
+    <row r="103" s="10" customFormat="1" spans="1:10">
+      <c r="A103" s="68"/>
+      <c r="B103" s="69"/>
+      <c r="E103" s="70"/>
+      <c r="J103" s="71"/>
+    </row>
+    <row r="104" s="10" customFormat="1" spans="1:10">
+      <c r="A104" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" s="69"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="10">
+        <f>SUM(F12:F103)</f>
         <v>92.5</v>
       </c>
-      <c r="J103" s="72"/>
+      <c r="J104" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="90">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A94:A98"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E94:E96"/>
     <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F17:F28"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="G17:G28"/>
+    <mergeCell ref="F17:F29"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="G17:G29"/>
     <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I17:I28"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="I17:I29"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I94:I98"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J18:J28"/>
-    <mergeCell ref="J30:J35"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J93:J97"/>
+    <mergeCell ref="J18:J29"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="J94:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="284" orientation="landscape" horizontalDpi="203" verticalDpi="203"/>
@@ -3957,7 +3964,7 @@
   <sheetPr/>
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -3971,35 +3978,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4040,13 +4047,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4087,13 +4094,13 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4134,13 +4141,13 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4181,13 +4188,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4228,13 +4235,13 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4275,7 +4282,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/项目/FarmStory/需求/FarmStory服务端需求分析及开发排期.xlsx
+++ b/项目/FarmStory/需求/FarmStory服务端需求分析及开发排期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13125"/>
+    <workbookView windowWidth="28125" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="需求分析" sheetId="1" r:id="rId1"/>
@@ -975,9 +975,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1016,9 +1016,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,37 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,6 +1038,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,17 +1068,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1113,6 +1089,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1121,8 +1105,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,7 +1138,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,16 +1152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,24 +1205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1230,6 +1212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1235,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,121 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,7 +1379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,15 +1396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1438,17 +1429,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,17 +1443,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1488,6 +1462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1496,153 +1485,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2189,9 +2189,9 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18:D21"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
